--- a/vedois/professores (importar)/Prof 9_horarios.xlsx
+++ b/vedois/professores (importar)/Prof 9_horarios.xlsx
@@ -716,9 +716,9 @@
           <t>22:40 - 23:30</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Computação Orientada a Objetos I (SIN - 3º período)</t>
         </is>
       </c>
     </row>
@@ -733,9 +733,9 @@
           <t>07:00 - 07:55</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Computação Orientada a Objetos I (SIN - 3º período)</t>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -750,9 +750,9 @@
           <t>07:55 - 08:50</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Computação Orientada a Objetos I (SIN - 3º período)</t>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -767,9 +767,9 @@
           <t>08:50 - 09:45</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>Computação Orientada a Objetos I (SIN - 3º período)</t>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -784,9 +784,9 @@
           <t>10:10 - 11:00</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Computação Orientada a Objetos I (SIN - 3º período)</t>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -818,9 +818,9 @@
           <t>13:30 - 14:25</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>Métodos Matemáticos para Análise de Dados (CCO - 3º período)</t>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -835,9 +835,9 @@
           <t>14:25 - 15:20</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>Métodos Matemáticos para Análise de Dados (CCO - 3º período)</t>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -852,9 +852,9 @@
           <t>15:45 - 16:40</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>Métodos Matemáticos para Análise de Dados (CCO - 3º período)</t>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -869,9 +869,9 @@
           <t>16:40 - 17:35</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>Métodos Matemáticos para Análise de Dados (CCO - 3º período)</t>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -971,9 +971,9 @@
           <t>22:40 - 23:30</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Computação Orientada a Objetos I (SIN - 3º período)</t>
         </is>
       </c>
     </row>
@@ -1226,9 +1226,9 @@
           <t>22:40 - 23:30</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Computação Orientada a Objetos I (SIN - 3º período)</t>
         </is>
       </c>
     </row>
@@ -1481,9 +1481,9 @@
           <t>22:40 - 23:30</t>
         </is>
       </c>
-      <c r="C62" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>Computação Orientada a Objetos I (SIN - 3º período)</t>
         </is>
       </c>
     </row>
@@ -1498,9 +1498,9 @@
           <t>07:00 - 07:55</t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>Métodos Matemáticos para Análise de Dados (CCO - 3º período)</t>
         </is>
       </c>
     </row>
@@ -1515,9 +1515,9 @@
           <t>07:55 - 08:50</t>
         </is>
       </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Métodos Matemáticos para Análise de Dados (CCO - 3º período)</t>
         </is>
       </c>
     </row>
@@ -1532,9 +1532,9 @@
           <t>08:50 - 09:45</t>
         </is>
       </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>Métodos Matemáticos para Análise de Dados (CCO - 3º período)</t>
         </is>
       </c>
     </row>
@@ -1549,9 +1549,9 @@
           <t>10:10 - 11:00</t>
         </is>
       </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>Métodos Matemáticos para Análise de Dados (CCO - 3º período)</t>
         </is>
       </c>
     </row>
